--- a/data_year/zb/文化/电视节目进出口情况/电视节目进口量.xlsx
+++ b/data_year/zb/文化/电视节目进出口情况/电视节目进口量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI14"/>
+  <dimension ref="A1:BI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,7 +738,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -768,24 +768,24 @@
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AC2" t="n">
-        <v>407</v>
+        <v>34</v>
       </c>
       <c r="AD2" t="n">
-        <v>582</v>
+        <v>350</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="n">
-        <v>6551</v>
+        <v>9363</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
@@ -793,10 +793,10 @@
         <v>10</v>
       </c>
       <c r="AM2" t="n">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AN2" t="n">
-        <v>7463</v>
+        <v>8526</v>
       </c>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
@@ -807,1385 +807,1527 @@
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
+      <c r="AX2" t="n">
+        <v>3</v>
+      </c>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BB2" t="n">
-        <v>1439</v>
+        <v>1499</v>
       </c>
       <c r="BC2" t="n">
-        <v>2869</v>
+        <v>1285</v>
       </c>
       <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="n">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="BG2" t="n">
-        <v>3594</v>
+        <v>4482</v>
       </c>
       <c r="BH2" t="n">
-        <v>20550</v>
+        <v>22197</v>
       </c>
       <c r="BI2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1063</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1133</v>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>330</v>
+      </c>
+      <c r="J3" t="n">
+        <v>362</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>33</v>
+      </c>
+      <c r="N3" t="n">
+        <v>875</v>
+      </c>
+      <c r="O3" t="n">
+        <v>914</v>
+      </c>
+      <c r="P3" t="n">
+        <v>154</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>8</v>
+      </c>
+      <c r="R3" t="n">
+        <v>112</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3418</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6439</v>
+      </c>
+      <c r="U3" t="n">
+        <v>182</v>
+      </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>66</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>8</v>
+      </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="AD3" t="n">
-        <v>233</v>
-      </c>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
+        <v>86</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>65</v>
+      </c>
       <c r="AG3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH3" t="n">
         <v>8</v>
       </c>
-      <c r="AH3" t="n">
-        <v>371</v>
-      </c>
       <c r="AI3" t="n">
-        <v>8661</v>
-      </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+        <v>8224</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>503</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>165</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>31</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>50</v>
+      </c>
       <c r="AN3" t="n">
-        <v>8697</v>
-      </c>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
+        <v>6905</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>249</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>206</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>31</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>7055</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>257</v>
+      </c>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
+      <c r="AX3" t="n">
+        <v>9</v>
+      </c>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="BB3" t="n">
-        <v>1614</v>
+        <v>767</v>
       </c>
       <c r="BC3" t="n">
-        <v>1328</v>
-      </c>
-      <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="inlineStr"/>
+        <v>583</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>279</v>
+      </c>
       <c r="BF3" t="n">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="BG3" t="n">
-        <v>4035</v>
+        <v>3478</v>
       </c>
       <c r="BH3" t="n">
-        <v>21426</v>
-      </c>
-      <c r="BI3" t="inlineStr"/>
+        <v>21793</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>950</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>552</v>
+      </c>
+      <c r="E4" t="n">
+        <v>619</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I4" t="n">
+        <v>310</v>
+      </c>
+      <c r="J4" t="n">
+        <v>252</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>15</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13</v>
+      </c>
+      <c r="N4" t="n">
+        <v>378</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1225</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>74</v>
+      </c>
+      <c r="R4" t="n">
+        <v>99</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2906</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3599</v>
+      </c>
+      <c r="U4" t="n">
+        <v>173</v>
+      </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>4</v>
+      </c>
+      <c r="X4" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>282</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>45</v>
+      </c>
       <c r="AB4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC4" t="n">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="AD4" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
+        <v>166</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>17</v>
+      </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AH4" t="n">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="AI4" t="n">
-        <v>9363</v>
-      </c>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
+        <v>5130</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>841</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>294</v>
+      </c>
       <c r="AL4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM4" t="n">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="AN4" t="n">
-        <v>8526</v>
-      </c>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
+        <v>4061</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>913</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>294</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>111</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>4077</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>918</v>
+      </c>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1</v>
+      </c>
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="BB4" t="n">
-        <v>1499</v>
+        <v>1519</v>
       </c>
       <c r="BC4" t="n">
-        <v>1285</v>
-      </c>
-      <c r="BD4" t="inlineStr"/>
-      <c r="BE4" t="inlineStr"/>
+        <v>1299</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>148</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>385</v>
+      </c>
       <c r="BF4" t="n">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="BG4" t="n">
-        <v>4482</v>
+        <v>3164</v>
       </c>
       <c r="BH4" t="n">
-        <v>22197</v>
-      </c>
-      <c r="BI4" t="inlineStr"/>
+        <v>13089</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1976</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>1063</v>
+        <v>787</v>
       </c>
       <c r="E5" t="n">
-        <v>1133</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+        <v>813</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>18</v>
+      </c>
       <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>166</v>
+      </c>
+      <c r="J5" t="n">
+        <v>187</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>144</v>
+      </c>
+      <c r="M5" t="n">
+        <v>70</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2640</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3612</v>
+      </c>
+      <c r="P5" t="n">
+        <v>920</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1196</v>
+      </c>
+      <c r="R5" t="n">
+        <v>140</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5299</v>
+      </c>
+      <c r="T5" t="n">
+        <v>7294</v>
+      </c>
+      <c r="U5" t="n">
+        <v>960</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>119</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1004</v>
+      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AE5" t="n">
         <v>12</v>
       </c>
-      <c r="I5" t="n">
-        <v>330</v>
-      </c>
-      <c r="J5" t="n">
-        <v>362</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>33</v>
-      </c>
-      <c r="N5" t="n">
-        <v>875</v>
-      </c>
-      <c r="O5" t="n">
-        <v>914</v>
-      </c>
-      <c r="P5" t="n">
-        <v>154</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>8</v>
-      </c>
-      <c r="R5" t="n">
-        <v>58</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1927</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2055</v>
-      </c>
-      <c r="U5" t="n">
-        <v>182</v>
-      </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>86</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>22</v>
-      </c>
       <c r="AF5" t="n">
-        <v>65</v>
+        <v>878</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>278</v>
       </c>
       <c r="AI5" t="n">
-        <v>8224</v>
+        <v>6657</v>
       </c>
       <c r="AJ5" t="n">
-        <v>502</v>
+        <v>1195</v>
       </c>
       <c r="AK5" t="n">
-        <v>165</v>
+        <v>639</v>
       </c>
       <c r="AL5" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="AM5" t="n">
-        <v>50</v>
+        <v>950</v>
       </c>
       <c r="AN5" t="n">
-        <v>6905</v>
+        <v>4603</v>
       </c>
       <c r="AO5" t="n">
-        <v>249</v>
+        <v>417</v>
       </c>
       <c r="AP5" t="n">
-        <v>205</v>
+        <v>805</v>
       </c>
       <c r="AQ5" t="n">
+        <v>43</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>970</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>4863</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>467</v>
+      </c>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="n">
         <v>30</v>
       </c>
-      <c r="AR5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>1122</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>257</v>
-      </c>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="BB5" t="n">
-        <v>767</v>
+        <v>1706</v>
       </c>
       <c r="BC5" t="n">
-        <v>583</v>
+        <v>1383</v>
       </c>
       <c r="BD5" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="BE5" t="n">
-        <v>279</v>
+        <v>2879</v>
       </c>
       <c r="BF5" t="n">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="BG5" t="n">
-        <v>3423</v>
+        <v>6547</v>
       </c>
       <c r="BH5" t="n">
-        <v>21790</v>
+        <v>18943</v>
       </c>
       <c r="BI5" t="n">
-        <v>955</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>14</v>
-      </c>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D6" t="n">
-        <v>552</v>
+        <v>1540</v>
       </c>
       <c r="E6" t="n">
-        <v>619</v>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>1239.3333333333</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>523.2</v>
+      </c>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I6" t="n">
-        <v>310</v>
+        <v>1519</v>
       </c>
       <c r="J6" t="n">
-        <v>252</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>1543.3833333333</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.5166666667</v>
+      </c>
       <c r="L6" t="n">
-        <v>15</v>
+        <v>159.1</v>
       </c>
       <c r="M6" t="n">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="N6" t="n">
-        <v>378</v>
+        <v>2941</v>
       </c>
       <c r="O6" t="n">
-        <v>1225</v>
+        <v>3370.8666666667</v>
       </c>
       <c r="P6" t="n">
+        <v>483.5166666667</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3103.1333333333</v>
+      </c>
+      <c r="R6" t="n">
+        <v>443</v>
+      </c>
+      <c r="S6" t="n">
+        <v>11282</v>
+      </c>
+      <c r="T6" t="n">
+        <v>12592.0166666667</v>
+      </c>
+      <c r="U6" t="n">
+        <v>492.8666666667</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>70.4166666667</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15.9166666667</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2420.8333333333</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>825</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3087.5833333333</v>
+      </c>
+      <c r="AE6" t="n">
         <v>6</v>
       </c>
-      <c r="Q6" t="n">
-        <v>74</v>
-      </c>
-      <c r="R6" t="n">
-        <v>99</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2906</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3599</v>
-      </c>
-      <c r="U6" t="n">
-        <v>173</v>
-      </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
-        <v>4</v>
-      </c>
-      <c r="X6" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>282</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>107</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>166</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>11</v>
-      </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>415.85</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="n">
-        <v>117</v>
+        <v>281</v>
       </c>
       <c r="AI6" t="n">
-        <v>5130</v>
+        <v>7216.9833333333</v>
       </c>
       <c r="AJ6" t="n">
-        <v>841</v>
+        <v>1245.1833333333</v>
       </c>
       <c r="AK6" t="n">
-        <v>294</v>
+        <v>1041.1333333333</v>
       </c>
       <c r="AL6" t="n">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="AM6" t="n">
-        <v>111</v>
+        <v>2411</v>
       </c>
       <c r="AN6" t="n">
-        <v>4061</v>
+        <v>6073.9</v>
       </c>
       <c r="AO6" t="n">
-        <v>913</v>
+        <v>341.7666666667</v>
       </c>
       <c r="AP6" t="n">
-        <v>294</v>
+        <v>1041.1333333333</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="AR6" t="n">
-        <v>111</v>
+        <v>2459</v>
       </c>
       <c r="AS6" t="n">
-        <v>4077</v>
+        <v>6206.9</v>
       </c>
       <c r="AT6" t="n">
-        <v>918</v>
+        <v>376.2666666667</v>
       </c>
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="n">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="BB6" t="n">
-        <v>1519</v>
+        <v>4437</v>
       </c>
       <c r="BC6" t="n">
-        <v>1299</v>
+        <v>3348.35</v>
       </c>
       <c r="BD6" t="n">
-        <v>148</v>
+        <v>0.8333333333</v>
       </c>
       <c r="BE6" t="n">
-        <v>385</v>
+        <v>4560.1166666667</v>
       </c>
       <c r="BF6" t="n">
-        <v>117</v>
+        <v>635</v>
       </c>
       <c r="BG6" t="n">
-        <v>3164</v>
+        <v>14022</v>
       </c>
       <c r="BH6" t="n">
-        <v>13089</v>
+        <v>26088.8166666667</v>
       </c>
       <c r="BI6" t="n">
-        <v>1976</v>
+        <v>2132.7333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>787</v>
+        <v>182</v>
       </c>
       <c r="E7" t="n">
-        <v>813</v>
+        <v>204</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>166</v>
+        <v>418</v>
       </c>
       <c r="J7" t="n">
-        <v>187</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>445</v>
+      </c>
+      <c r="K7" t="n">
+        <v>33</v>
+      </c>
       <c r="L7" t="n">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="N7" t="n">
-        <v>2640</v>
+        <v>532</v>
       </c>
       <c r="O7" t="n">
-        <v>3612</v>
+        <v>1166</v>
       </c>
       <c r="P7" t="n">
-        <v>920</v>
+        <v>508</v>
       </c>
       <c r="Q7" t="n">
-        <v>1196</v>
+        <v>8905</v>
       </c>
       <c r="R7" t="n">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="S7" t="n">
-        <v>5299</v>
+        <v>1908</v>
       </c>
       <c r="T7" t="n">
-        <v>7294</v>
+        <v>16923</v>
       </c>
       <c r="U7" t="n">
-        <v>960</v>
+        <v>630</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="Z7" t="n">
         <v>16</v>
       </c>
       <c r="AA7" t="n">
-        <v>1004</v>
-      </c>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
+        <v>8431</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>184</v>
+      </c>
       <c r="AD7" t="n">
-        <v>1299</v>
+        <v>14063</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="AF7" t="n">
-        <v>878</v>
+        <v>1493</v>
       </c>
       <c r="AG7" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
         <v>278</v>
       </c>
       <c r="AI7" t="n">
-        <v>6657</v>
+        <v>6447</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="AK7" t="n">
-        <v>639</v>
+        <v>1765</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="AM7" t="n">
-        <v>950</v>
+        <v>104</v>
       </c>
       <c r="AN7" t="n">
-        <v>4603</v>
+        <v>5918</v>
       </c>
       <c r="AO7" t="n">
-        <v>417</v>
+        <v>1624</v>
       </c>
       <c r="AP7" t="n">
-        <v>805</v>
+        <v>2292</v>
       </c>
       <c r="AQ7" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="AR7" t="n">
-        <v>970</v>
+        <v>154</v>
       </c>
       <c r="AS7" t="n">
-        <v>4863</v>
+        <v>7473</v>
       </c>
       <c r="AT7" t="n">
-        <v>467</v>
+        <v>1842</v>
       </c>
       <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY7" t="inlineStr"/>
+        <v>49</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>48</v>
+      </c>
       <c r="AZ7" t="n">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="BA7" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>1706</v>
+        <v>592</v>
       </c>
       <c r="BC7" t="n">
-        <v>1383</v>
+        <v>1038</v>
       </c>
       <c r="BD7" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="BE7" t="n">
-        <v>2879</v>
+        <v>12690</v>
       </c>
       <c r="BF7" t="n">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="BG7" t="n">
-        <v>6547</v>
+        <v>2340</v>
       </c>
       <c r="BH7" t="n">
-        <v>18943</v>
+        <v>31109</v>
       </c>
       <c r="BI7" t="n">
-        <v>2637</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>61</v>
+      </c>
       <c r="C8" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>1540</v>
+        <v>826</v>
       </c>
       <c r="E8" t="n">
-        <v>1239.3333333333</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>923.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>165</v>
+      </c>
       <c r="G8" t="n">
-        <v>523.2</v>
+        <v>686.6</v>
       </c>
       <c r="H8" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I8" t="n">
-        <v>1519</v>
+        <v>541</v>
       </c>
       <c r="J8" t="n">
-        <v>1543.3833333333</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.5166666667</v>
-      </c>
+        <v>1113.85</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>159.1</v>
+        <v>478.8</v>
       </c>
       <c r="M8" t="n">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="N8" t="n">
-        <v>2941</v>
+        <v>652</v>
       </c>
       <c r="O8" t="n">
-        <v>3370.8666666667</v>
+        <v>1612.283333</v>
       </c>
       <c r="P8" t="n">
-        <v>483.5166666667</v>
+        <v>324</v>
       </c>
       <c r="Q8" t="n">
-        <v>3103.1333333333</v>
+        <v>4694.916667</v>
       </c>
       <c r="R8" t="n">
-        <v>443</v>
+        <v>164</v>
       </c>
       <c r="S8" t="n">
-        <v>11282</v>
+        <v>3613</v>
       </c>
       <c r="T8" t="n">
-        <v>12592.0166666667</v>
+        <v>9184.25</v>
       </c>
       <c r="U8" t="n">
-        <v>492.8666666667</v>
-      </c>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+        <v>578.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>4</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4</v>
+      </c>
       <c r="Y8" t="n">
-        <v>70.4166666667</v>
+        <v>104.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.9166666667</v>
+        <v>20.66666667</v>
       </c>
       <c r="AA8" t="n">
-        <v>2420.8333333333</v>
+        <v>3258.516667</v>
       </c>
       <c r="AB8" t="n">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
-        <v>825</v>
+        <v>152</v>
       </c>
       <c r="AD8" t="n">
-        <v>3087.5833333333</v>
+        <v>3528.3</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>415.85</v>
+        <v>153.2166667</v>
       </c>
       <c r="AG8" t="n">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="AH8" t="n">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="AI8" t="n">
-        <v>7216.9833333333</v>
+        <v>3915.35</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1245.1833333333</v>
+        <v>1524.016667</v>
       </c>
       <c r="AK8" t="n">
-        <v>1041.1333333333</v>
+        <v>2899.833333</v>
       </c>
       <c r="AL8" t="n">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="AM8" t="n">
-        <v>2411</v>
+        <v>1101</v>
       </c>
       <c r="AN8" t="n">
-        <v>6073.9</v>
+        <v>6861.266667</v>
       </c>
       <c r="AO8" t="n">
-        <v>341.7666666667</v>
+        <v>1739.833333</v>
       </c>
       <c r="AP8" t="n">
-        <v>1041.1333333333</v>
+        <v>2899.833333</v>
       </c>
       <c r="AQ8" t="n">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AR8" t="n">
-        <v>2459</v>
+        <v>1114</v>
       </c>
       <c r="AS8" t="n">
-        <v>6206.9</v>
+        <v>6898.016667</v>
       </c>
       <c r="AT8" t="n">
-        <v>376.2666666667</v>
+        <v>1739.833333</v>
       </c>
       <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AZ8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="n">
+        <v>210</v>
+      </c>
       <c r="BA8" t="n">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c r="BB8" t="n">
-        <v>4437</v>
+        <v>1319</v>
       </c>
       <c r="BC8" t="n">
-        <v>3348.35</v>
+        <v>1342.65</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.8333333333</v>
+        <v>62</v>
       </c>
       <c r="BE8" t="n">
-        <v>4560.1166666667</v>
+        <v>7751.966667</v>
       </c>
       <c r="BF8" t="n">
-        <v>635</v>
+        <v>277</v>
       </c>
       <c r="BG8" t="n">
-        <v>14022</v>
+        <v>5070</v>
       </c>
       <c r="BH8" t="n">
-        <v>26088.8166666667</v>
+        <v>20102.22</v>
       </c>
       <c r="BI8" t="n">
-        <v>2132.7333333333</v>
+        <v>3863.016667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>276.75</v>
+      </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>182</v>
+        <v>838</v>
       </c>
       <c r="E9" t="n">
-        <v>204</v>
+        <v>909.666666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>17</v>
+        <v>4.16666666666667</v>
       </c>
       <c r="G9" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>55</v>
+      </c>
+      <c r="J9" t="n">
+        <v>83.3833333333333</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>134</v>
+      </c>
+      <c r="M9" t="n">
+        <v>14</v>
+      </c>
+      <c r="N9" t="n">
+        <v>383</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1010.68333333333</v>
+      </c>
+      <c r="P9" t="n">
+        <v>57.1666666666667</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>8040.88333333333</v>
+      </c>
+      <c r="R9" t="n">
+        <v>114</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1616</v>
+      </c>
+      <c r="T9" t="n">
+        <v>11077.9166666667</v>
+      </c>
+      <c r="U9" t="n">
+        <v>188.666666666667</v>
+      </c>
+      <c r="V9" t="n">
+        <v>52.0666666666667</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>304.066666666667</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>3.33333333333333</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>7386.66666666667</v>
+      </c>
+      <c r="AB9" t="n">
         <v>15</v>
       </c>
-      <c r="I9" t="n">
-        <v>418</v>
-      </c>
-      <c r="J9" t="n">
-        <v>445</v>
-      </c>
-      <c r="K9" t="n">
-        <v>33</v>
-      </c>
-      <c r="L9" t="n">
-        <v>133</v>
-      </c>
-      <c r="M9" t="n">
-        <v>28</v>
-      </c>
-      <c r="N9" t="n">
-        <v>532</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1166</v>
-      </c>
-      <c r="P9" t="n">
-        <v>508</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>8905</v>
-      </c>
-      <c r="R9" t="n">
-        <v>93</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1908</v>
-      </c>
-      <c r="T9" t="n">
-        <v>16923</v>
-      </c>
-      <c r="U9" t="n">
-        <v>630</v>
-      </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="n">
-        <v>217</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>8431</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>16</v>
-      </c>
       <c r="AC9" t="n">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="AD9" t="n">
-        <v>14063</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>56</v>
-      </c>
+        <v>7488.8</v>
+      </c>
+      <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="n">
-        <v>1493</v>
+        <v>1526.21666666667</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="AH9" t="n">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="AI9" t="n">
-        <v>6447</v>
+        <v>8242.26666666667</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1186</v>
+        <v>2557.7</v>
       </c>
       <c r="AK9" t="n">
-        <v>1765</v>
+        <v>2393.78333333333</v>
       </c>
       <c r="AL9" t="n">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="AM9" t="n">
-        <v>104</v>
+        <v>814</v>
       </c>
       <c r="AN9" t="n">
-        <v>5918</v>
+        <v>6621.11666666667</v>
       </c>
       <c r="AO9" t="n">
-        <v>1624</v>
+        <v>2174</v>
       </c>
       <c r="AP9" t="n">
-        <v>2292</v>
+        <v>2403.31666666667</v>
       </c>
       <c r="AQ9" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="AR9" t="n">
-        <v>154</v>
+        <v>825</v>
       </c>
       <c r="AS9" t="n">
-        <v>7473</v>
+        <v>6771.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>1842</v>
+        <v>2174.21666666667</v>
       </c>
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="n">
-        <v>49</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>48</v>
-      </c>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="n">
-        <v>296</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>26</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>592</v>
-      </c>
+        <v>147.466666666667</v>
+      </c>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
       <c r="BC9" t="n">
-        <v>1038</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>16</v>
-      </c>
+        <v>147.466666666667</v>
+      </c>
+      <c r="BD9" t="inlineStr"/>
       <c r="BE9" t="n">
-        <v>12690</v>
+        <v>12022.4833333333</v>
       </c>
       <c r="BF9" t="n">
-        <v>126</v>
+        <v>302</v>
       </c>
       <c r="BG9" t="n">
-        <v>2340</v>
+        <v>2701</v>
       </c>
       <c r="BH9" t="n">
-        <v>31109</v>
+        <v>26395.75</v>
       </c>
       <c r="BI9" t="n">
-        <v>3722</v>
+        <v>4923.91666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="C10" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>826</v>
+        <v>766</v>
       </c>
       <c r="E10" t="n">
-        <v>923.5</v>
+        <v>884</v>
       </c>
       <c r="F10" t="n">
-        <v>165</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>686.6</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I10" t="n">
-        <v>541</v>
+        <v>375</v>
       </c>
       <c r="J10" t="n">
-        <v>1113.85</v>
+        <v>916</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>478.8</v>
+        <v>19</v>
       </c>
       <c r="M10" t="n">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="N10" t="n">
-        <v>652</v>
+        <v>3681</v>
       </c>
       <c r="O10" t="n">
-        <v>1612.283333</v>
+        <v>3769</v>
       </c>
       <c r="P10" t="n">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="Q10" t="n">
-        <v>4694.916667</v>
+        <v>13609</v>
       </c>
       <c r="R10" t="n">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="S10" t="n">
-        <v>3613</v>
+        <v>5026</v>
       </c>
       <c r="T10" t="n">
-        <v>9184.25</v>
+        <v>19136</v>
       </c>
       <c r="U10" t="n">
-        <v>578.5</v>
+        <v>277</v>
       </c>
       <c r="V10" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="W10" t="n">
         <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="Y10" t="n">
-        <v>104.4</v>
+        <v>327</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.66666667</v>
+        <v>84</v>
       </c>
       <c r="AA10" t="n">
-        <v>3258.516667</v>
+        <v>13258</v>
       </c>
       <c r="AB10" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AC10" t="n">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="AD10" t="n">
-        <v>3528.3</v>
+        <v>13446</v>
       </c>
       <c r="AE10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AF10" t="n">
-        <v>153.2166667</v>
+        <v>1865</v>
       </c>
       <c r="AG10" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AH10" t="n">
-        <v>339</v>
+        <v>236</v>
       </c>
       <c r="AI10" t="n">
-        <v>3915.35</v>
+        <v>4951</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1524.016667</v>
+        <v>1032</v>
       </c>
       <c r="AK10" t="n">
-        <v>2899.833333</v>
+        <v>2659</v>
       </c>
       <c r="AL10" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AM10" t="n">
-        <v>1101</v>
+        <v>1336</v>
       </c>
       <c r="AN10" t="n">
-        <v>6861.266667</v>
+        <v>41653</v>
       </c>
       <c r="AO10" t="n">
-        <v>1739.833333</v>
+        <v>200</v>
       </c>
       <c r="AP10" t="n">
-        <v>2899.833333</v>
+        <v>2665</v>
       </c>
       <c r="AQ10" t="n">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="AR10" t="n">
-        <v>1114</v>
+        <v>1524</v>
       </c>
       <c r="AS10" t="n">
-        <v>6898.016667</v>
+        <v>41926</v>
       </c>
       <c r="AT10" t="n">
-        <v>1739.833333</v>
-      </c>
-      <c r="AU10" t="inlineStr"/>
+        <v>389</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>1</v>
+      </c>
       <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
+      <c r="AX10" t="n">
+        <v>1</v>
+      </c>
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="n">
-        <v>210</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>55</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>1319</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
       <c r="BC10" t="n">
-        <v>1342.65</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>62</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="BD10" t="inlineStr"/>
       <c r="BE10" t="n">
-        <v>7751.966667</v>
+        <v>18213</v>
       </c>
       <c r="BF10" t="n">
-        <v>277</v>
+        <v>360</v>
       </c>
       <c r="BG10" t="n">
-        <v>5070</v>
+        <v>6846</v>
       </c>
       <c r="BH10" t="n">
-        <v>20102.22</v>
+        <v>66341</v>
       </c>
       <c r="BI10" t="n">
-        <v>3863.016667</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>276.75</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D11" t="n">
-        <v>838</v>
+        <v>1483</v>
       </c>
       <c r="E11" t="n">
-        <v>909.666666666667</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4.16666666666667</v>
-      </c>
-      <c r="G11" t="n">
-        <v>16</v>
-      </c>
+        <v>1122</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>55</v>
+        <v>197</v>
       </c>
       <c r="J11" t="n">
-        <v>83.3833333333333</v>
+        <v>163</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="M11" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>383</v>
+        <v>115</v>
       </c>
       <c r="O11" t="n">
-        <v>1010.68333333333</v>
+        <v>580</v>
       </c>
       <c r="P11" t="n">
-        <v>57.1666666666667</v>
+        <v>189</v>
       </c>
       <c r="Q11" t="n">
-        <v>8040.88333333333</v>
+        <v>4313</v>
       </c>
       <c r="R11" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S11" t="n">
-        <v>1616</v>
+        <v>2107</v>
       </c>
       <c r="T11" t="n">
-        <v>11077.9166666667</v>
+        <v>6522</v>
       </c>
       <c r="U11" t="n">
-        <v>188.666666666667</v>
+        <v>226</v>
       </c>
       <c r="V11" t="n">
-        <v>52.0666666666667</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>304.066666666667</v>
+        <v>112</v>
       </c>
       <c r="Z11" t="n">
-        <v>3.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="AA11" t="n">
-        <v>7386.66666666667</v>
+        <v>4248</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AC11" t="n">
-        <v>127</v>
+        <v>268</v>
       </c>
       <c r="AD11" t="n">
-        <v>7488.8</v>
-      </c>
-      <c r="AE11" t="inlineStr"/>
+        <v>4579</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>37</v>
+      </c>
       <c r="AF11" t="n">
-        <v>1526.21666666667</v>
+        <v>664</v>
       </c>
       <c r="AG11" t="n">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="AH11" t="n">
-        <v>259</v>
+        <v>180</v>
       </c>
       <c r="AI11" t="n">
-        <v>8242.26666666667</v>
+        <v>1871</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2557.7</v>
+        <v>628</v>
       </c>
       <c r="AK11" t="n">
-        <v>2393.78333333333</v>
+        <v>1611</v>
       </c>
       <c r="AL11" t="n">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="AM11" t="n">
-        <v>814</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="n">
-        <v>6621.11666666667</v>
+        <v>7354</v>
       </c>
       <c r="AO11" t="n">
-        <v>2174</v>
+        <v>417</v>
       </c>
       <c r="AP11" t="n">
-        <v>2403.31666666667</v>
+        <v>1725</v>
       </c>
       <c r="AQ11" t="n">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="AR11" t="n">
-        <v>825</v>
+        <v>252</v>
       </c>
       <c r="AS11" t="n">
-        <v>6771.5</v>
+        <v>7677</v>
       </c>
       <c r="AT11" t="n">
-        <v>2174.21666666667</v>
+        <v>499</v>
       </c>
       <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="inlineStr"/>
@@ -2193,531 +2335,366 @@
       <c r="AX11" t="inlineStr"/>
       <c r="AY11" t="inlineStr"/>
       <c r="AZ11" t="n">
-        <v>147.466666666667</v>
-      </c>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>34</v>
+      </c>
       <c r="BC11" t="n">
-        <v>147.466666666667</v>
+        <v>70</v>
       </c>
       <c r="BD11" t="inlineStr"/>
       <c r="BE11" t="n">
-        <v>12022.4833333333</v>
+        <v>6706</v>
       </c>
       <c r="BF11" t="n">
-        <v>302</v>
+        <v>143</v>
       </c>
       <c r="BG11" t="n">
-        <v>2701</v>
+        <v>2539</v>
       </c>
       <c r="BH11" t="n">
-        <v>26395.75</v>
+        <v>16182</v>
       </c>
       <c r="BI11" t="n">
-        <v>4923.91666666667</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>213</v>
+        <v>24.27</v>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D12" t="n">
-        <v>766</v>
+        <v>1476</v>
       </c>
       <c r="E12" t="n">
-        <v>884</v>
+        <v>1143.02</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>5.63</v>
       </c>
       <c r="H12" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I12" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="J12" t="n">
-        <v>916</v>
+        <v>280.47</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>19</v>
+        <v>19.07</v>
       </c>
       <c r="M12" t="n">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="N12" t="n">
-        <v>3681</v>
+        <v>153</v>
       </c>
       <c r="O12" t="n">
-        <v>3769</v>
+        <v>394.6</v>
       </c>
       <c r="P12" t="n">
-        <v>272</v>
+        <v>89.45</v>
       </c>
       <c r="Q12" t="n">
-        <v>13609</v>
+        <v>1600.55</v>
       </c>
       <c r="R12" t="n">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="S12" t="n">
-        <v>5026</v>
+        <v>2549</v>
       </c>
       <c r="T12" t="n">
-        <v>19136</v>
+        <v>4106.63</v>
       </c>
       <c r="U12" t="n">
-        <v>277</v>
-      </c>
-      <c r="V12" t="n">
-        <v>72</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" t="n">
-        <v>60</v>
-      </c>
+        <v>117.45</v>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>327</v>
+        <v>109.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="AA12" t="n">
-        <v>13258</v>
+        <v>1504.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AC12" t="n">
-        <v>204</v>
+        <v>484</v>
       </c>
       <c r="AD12" t="n">
-        <v>13446</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1</v>
-      </c>
+        <v>1940.82</v>
+      </c>
+      <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="n">
-        <v>1865</v>
+        <v>1008.65</v>
       </c>
       <c r="AG12" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="AH12" t="n">
-        <v>236</v>
+        <v>107</v>
       </c>
       <c r="AI12" t="n">
-        <v>4951</v>
+        <v>1632.62</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1032</v>
+        <v>394.57</v>
       </c>
       <c r="AK12" t="n">
-        <v>2659</v>
+        <v>157.88</v>
       </c>
       <c r="AL12" t="n">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
-        <v>1336</v>
+        <v>486</v>
       </c>
       <c r="AN12" t="n">
-        <v>41653</v>
+        <v>1000.22</v>
       </c>
       <c r="AO12" t="n">
-        <v>200</v>
+        <v>378</v>
       </c>
       <c r="AP12" t="n">
-        <v>2665</v>
+        <v>173.92</v>
       </c>
       <c r="AQ12" t="n">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>1524</v>
+        <v>486</v>
       </c>
       <c r="AS12" t="n">
-        <v>41926</v>
+        <v>1082.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>389</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>1</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">
         <v>1</v>
       </c>
-      <c r="AY12" t="inlineStr"/>
+      <c r="AY12" t="n">
+        <v>1</v>
+      </c>
       <c r="AZ12" t="n">
-        <v>46</v>
+        <v>47.48</v>
       </c>
       <c r="BA12" t="inlineStr"/>
       <c r="BB12" t="inlineStr"/>
       <c r="BC12" t="n">
-        <v>46</v>
-      </c>
-      <c r="BD12" t="inlineStr"/>
+        <v>49.48</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>2</v>
+      </c>
       <c r="BE12" t="n">
-        <v>18213</v>
+        <v>2783.12</v>
       </c>
       <c r="BF12" t="n">
-        <v>360</v>
+        <v>179</v>
       </c>
       <c r="BG12" t="n">
-        <v>6846</v>
+        <v>3142</v>
       </c>
       <c r="BH12" t="n">
-        <v>66341</v>
+        <v>6932</v>
       </c>
       <c r="BI12" t="n">
-        <v>1785</v>
+        <v>957.02</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52.87</v>
+      </c>
       <c r="C13" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
-        <v>1483</v>
+        <v>697</v>
       </c>
       <c r="E13" t="n">
-        <v>1122</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>644.37</v>
+      </c>
+      <c r="F13" t="n">
+        <v>18</v>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I13" t="n">
-        <v>197</v>
+        <v>1625</v>
       </c>
       <c r="J13" t="n">
-        <v>163</v>
+        <v>1235</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>20</v>
+        <v>54.5</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="N13" t="n">
-        <v>115</v>
+        <v>3145</v>
       </c>
       <c r="O13" t="n">
-        <v>580</v>
+        <v>30424.13</v>
       </c>
       <c r="P13" t="n">
-        <v>189</v>
+        <v>275.55</v>
       </c>
       <c r="Q13" t="n">
-        <v>4313</v>
+        <v>2460.47</v>
       </c>
       <c r="R13" t="n">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="S13" t="n">
-        <v>2107</v>
+        <v>5720</v>
       </c>
       <c r="T13" t="n">
-        <v>6522</v>
+        <v>34919.55</v>
       </c>
       <c r="U13" t="n">
-        <v>226</v>
-      </c>
-      <c r="V13" t="n">
-        <v>5</v>
-      </c>
+        <v>312.73</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>112</v>
+        <v>93.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>25</v>
+        <v>33.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>4248</v>
+        <v>2313.02</v>
       </c>
       <c r="AB13" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="AD13" t="n">
-        <v>4579</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>37</v>
-      </c>
+        <v>2507.32</v>
+      </c>
+      <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="n">
-        <v>664</v>
+        <v>523.65</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AH13" t="n">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="AI13" t="n">
-        <v>1871</v>
+        <v>2151.92</v>
       </c>
       <c r="AJ13" t="n">
-        <v>628</v>
+        <v>1298.32</v>
       </c>
       <c r="AK13" t="n">
-        <v>1611</v>
+        <v>3358.65</v>
       </c>
       <c r="AL13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AM13" t="n">
-        <v>156</v>
+        <v>390</v>
       </c>
       <c r="AN13" t="n">
-        <v>7354</v>
+        <v>3729.47</v>
       </c>
       <c r="AO13" t="n">
-        <v>417</v>
+        <v>33.07</v>
       </c>
       <c r="AP13" t="n">
-        <v>1725</v>
+        <v>3405.78</v>
       </c>
       <c r="AQ13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR13" t="n">
-        <v>252</v>
+        <v>390</v>
       </c>
       <c r="AS13" t="n">
-        <v>7677</v>
+        <v>3787.1</v>
       </c>
       <c r="AT13" t="n">
-        <v>499</v>
+        <v>40.57</v>
       </c>
       <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
+      <c r="AX13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.5</v>
+      </c>
       <c r="AZ13" t="n">
-        <v>45</v>
+        <v>34.02</v>
       </c>
       <c r="BA13" t="n">
         <v>2</v>
       </c>
       <c r="BB13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BC13" t="n">
-        <v>70</v>
+        <v>68.68000000000001</v>
       </c>
       <c r="BD13" t="inlineStr"/>
       <c r="BE13" t="n">
-        <v>6706</v>
+        <v>6389.9</v>
       </c>
       <c r="BF13" t="n">
-        <v>143</v>
+        <v>236</v>
       </c>
       <c r="BG13" t="n">
-        <v>2539</v>
+        <v>6221</v>
       </c>
       <c r="BH13" t="n">
-        <v>16182</v>
+        <v>40952.57</v>
       </c>
       <c r="BI13" t="n">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>24.27</v>
-      </c>
-      <c r="C14" t="n">
-        <v>63</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1476</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1143.02</v>
-      </c>
-      <c r="F14" t="n">
-        <v>24</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16</v>
-      </c>
-      <c r="I14" t="n">
-        <v>361</v>
-      </c>
-      <c r="J14" t="n">
-        <v>280.47</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>19.07</v>
-      </c>
-      <c r="M14" t="n">
-        <v>7</v>
-      </c>
-      <c r="N14" t="n">
-        <v>153</v>
-      </c>
-      <c r="O14" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="P14" t="n">
-        <v>89.45</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1600.55</v>
-      </c>
-      <c r="R14" t="n">
-        <v>133</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2549</v>
-      </c>
-      <c r="T14" t="n">
-        <v>4106.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>117.45</v>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="n">
-        <v>109.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1504.1</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>484</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1940.82</v>
-      </c>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="n">
-        <v>1008.65</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>107</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1632.62</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>394.57</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>157.88</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>486</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1000.22</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>378</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>173.92</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>486</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>1082.25</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>414</v>
-      </c>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>47.48</v>
-      </c>
-      <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="n">
-        <v>49.48</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>2783.12</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>179</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>3142</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>6932</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>957.02</v>
+        <v>1685.62</v>
       </c>
     </row>
   </sheetData>
